--- a/artfynd/A 25651-2025 artfynd.xlsx
+++ b/artfynd/A 25651-2025 artfynd.xlsx
@@ -1649,7 +1649,7 @@
         <v>127122519</v>
       </c>
       <c r="B10" t="n">
-        <v>57832</v>
+        <v>58043</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
